--- a/ctdpy/tests/etc/data/Test_Leveransmall_CTD.xlsx
+++ b/ctdpy/tests/etc/data/Test_Leveransmall_CTD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="-90" windowWidth="18930" windowHeight="5910" tabRatio="840"/>
+    <workbookView xWindow="30" yWindow="-90" windowWidth="18930" windowHeight="5910" tabRatio="840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Förklaring" sheetId="7" r:id="rId1"/>
@@ -437,7 +437,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="409">
   <si>
     <t>SHIPC</t>
   </si>
@@ -1661,6 +1661,9 @@
   </si>
   <si>
     <t>2015-02-15</t>
+  </si>
+  <si>
+    <t>HAV, SMHI</t>
   </si>
 </sst>
 </file>
@@ -2463,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2562,9 @@
       <c r="B15" s="100" t="s">
         <v>396</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="101" t="s">
+        <v>374</v>
+      </c>
       <c r="D15" s="102">
         <v>2014</v>
       </c>
@@ -2585,7 +2590,9 @@
       <c r="B17" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="103" t="s">
+        <v>401</v>
+      </c>
       <c r="D17" s="100" t="s">
         <v>401</v>
       </c>
@@ -2597,7 +2604,9 @@
       <c r="B18" s="100" t="s">
         <v>402</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="103" t="s">
+        <v>408</v>
+      </c>
       <c r="D18" s="100" t="s">
         <v>403</v>
       </c>
@@ -2609,7 +2618,9 @@
       <c r="B19" s="100" t="s">
         <v>404</v>
       </c>
-      <c r="C19" s="103"/>
+      <c r="C19" s="103" t="s">
+        <v>339</v>
+      </c>
       <c r="D19" s="100" t="s">
         <v>405</v>
       </c>
@@ -2621,7 +2632,9 @@
       <c r="B20" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="103"/>
+      <c r="C20" s="103" t="s">
+        <v>114</v>
+      </c>
       <c r="D20" s="100" t="s">
         <v>175</v>
       </c>
@@ -2709,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,9 +2758,7 @@
     <col min="31" max="31" width="10.42578125" style="57" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16.42578125" style="57" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7.28515625" style="57" customWidth="1"/>
-    <col min="34" max="34" width="21" style="57" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" style="57" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="57"/>
+    <col min="34" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -3266,41 +3277,6 @@
       <c r="AG6" s="57" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K7" s="74"/>
-      <c r="Z7" s="74"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K8" s="74"/>
-      <c r="Z8" s="74"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K9" s="74"/>
-      <c r="Z9" s="74"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K10" s="74"/>
-      <c r="Z10" s="74"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K11" s="74"/>
-      <c r="Z11" s="74"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K12" s="74"/>
-      <c r="Z12" s="74"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K13" s="74"/>
-      <c r="Z13" s="74"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K14" s="74"/>
-      <c r="Z14" s="74"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K15" s="74"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0" pivotTables="0"/>
